--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="461">
   <si>
     <t>dataset_id</t>
+  </si>
+  <si>
+    <t>cic_id</t>
   </si>
   <si>
     <t>dataset_name</t>
@@ -825,6 +828,12 @@
     <t>D0052</t>
   </si>
   <si>
+    <t>D0058</t>
+  </si>
+  <si>
+    <t>D0059</t>
+  </si>
+  <si>
     <t>D0061</t>
   </si>
   <si>
@@ -925,6 +934,54 @@
   </si>
   <si>
     <t>D0084</t>
+  </si>
+  <si>
+    <t>CIC.1, CIC.2, CIC.3, CIC.4, CIC.5</t>
+  </si>
+  <si>
+    <t>CIC.1, CIC.2, CIC.4</t>
+  </si>
+  <si>
+    <t>CIC.2</t>
+  </si>
+  <si>
+    <t>CIC.1, CIC.2</t>
+  </si>
+  <si>
+    <t>CIC.3, CIC.4</t>
+  </si>
+  <si>
+    <t>CIC.5</t>
+  </si>
+  <si>
+    <t>CIC.3, CIC.4, CIC.5</t>
+  </si>
+  <si>
+    <t>CIC.2, CIC.5</t>
+  </si>
+  <si>
+    <t>CIC.4</t>
+  </si>
+  <si>
+    <t>CIC.1, CIC.3, CIC.5</t>
+  </si>
+  <si>
+    <t>CIC.2, CIC.4</t>
+  </si>
+  <si>
+    <t>CIC.3</t>
+  </si>
+  <si>
+    <t>CIC.1, CIC.4, CIC.5</t>
+  </si>
+  <si>
+    <t>CIC.1, CIC.4</t>
+  </si>
+  <si>
+    <t>CIC.3, CIC.5</t>
+  </si>
+  <si>
+    <t>CIC.2, CIC.3</t>
   </si>
   <si>
     <t>Number of  policies supporting action on climate risk</t>
@@ -1000,6 +1057,12 @@
     <t>Live Wood Fuel Load; Dead Foliage FuelLoad; Dead Wood Fuel Load; Live Fuel Moisture Content; Dead Foliage Moisture Content; Dead Wood Moisture Content</t>
   </si>
   <si>
+    <t>Vegetation OpticalDepth</t>
+  </si>
+  <si>
+    <t>Low Vegetation LAI; High Vegetation LAI</t>
+  </si>
+  <si>
     <t>Type of Vegetation</t>
   </si>
   <si>
@@ -1132,6 +1195,9 @@
   </si>
   <si>
     <t>Effective wildfire management and prevention strategies depend on accurate forecasts of fire occurrence and propagation. Fuel load and fuel moisture content are essential variables for forecasting fire occurrence, and whilst existing operational systems incorporate dead fuel moisture content, both live fuel moisture content and fuel load are either approximated or neglected. We propose a mid-complexity model combining data driven and analytical methods to predict fuel characteristics. The model can be integrated into earth system models to provide real-time forecasts and climate records taking advantage of meteorological variables, land surface modelling, and satellite observations. Fuel load and moisture is partitioned into live and dead fuels, including both wood and foliage components.</t>
+  </si>
+  <si>
+    <t>Passive microwave remote sensing observations at L-band provide key and global information on surface soil moisture and vegetation water content, which are related to the Earth water and carbon cycles. Only two space-borne L-band sensors are currently operating: SMOS, launched end of 2009 and thus providing now a 10-year global data set and SMAP, launched beginning of 2015. This study provides a state-of-the-art scientific overview of the SMOS-IC retrieval data set based on the SMOS L-band observations. This SMOS product aims at improved performance and independence of auxiliary data, key features for robust applications.</t>
   </si>
   <si>
     <t>The land-surface developments of the European Centre for Medium-range Weather Forecasts (ECMWF) are based on the Carbon-Hydrology Tiled Scheme for Surface Exchanges over Land (CHTESSEL) and form an integral part of the Integrated Forecasting System (IFS), supporting a wide range of global weather, climate and environmental applications. In order to structure, coordinate and focus future developments and benefit from international collaboration in new areas, a flexible system named ECLand, which would facilitate modular extensions to support numerical weather prediction (NWP) and society-relevant operational services, for example, Copernicus, is presented. This paper introduces recent examples of novel ECLand developments on (i) vegetation; (ii) snow; (iii) soil; (iv) open water/lake; (v) river/inundation; and (vi) urban areas.</t>
@@ -1253,6 +1319,12 @@
     <t>https://bg.copernicus.org/articles/21/279/2024/</t>
   </si>
   <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0034425720306118?via%3Dihub</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/2073-4433/12/6/723</t>
+  </si>
+  <si>
     <t>https://www.mdpi.com/2073-4433/12/6/725</t>
   </si>
   <si>
@@ -1373,6 +1445,9 @@
     <t>McNorton, J. R. and Di Giuseppe, F.: A global fuel characteristic model and dataset for wildfire prediction, Biogeosciences, 21, 279–300, https://doi.org/10.5194/bg-21-279-2024, 2024.</t>
   </si>
   <si>
+    <t>Wigneron, J.-P. et al. SMOS-IC data record of soil moisture and L-VOD: historical development, applications and perspectives. Remote Sens. Environ. 254, 112238 (2021).</t>
+  </si>
+  <si>
     <t>Boussetta, S. et al. Ecland: the ECMWF land surface modelling system. Atmosphere 12, 723 (2021).</t>
   </si>
   <si>
@@ -1446,6 +1521,12 @@
   </si>
   <si>
     <t>Fuel model</t>
+  </si>
+  <si>
+    <t>Satellite (SMOS)</t>
+  </si>
+  <si>
+    <t>Satellite (multi- sensor)</t>
   </si>
   <si>
     <t>ECLand</t>
@@ -1852,31 +1933,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="11" width="50.7109375" style="1" customWidth="1"/>
+    <col min="6" max="12" width="50.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -1896,1546 +1977,1753 @@
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>268</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H3" s="3"/>
+        <v>268</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>268</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="E5" s="1"/>
       <c r="F5" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>212</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="E7" s="1"/>
       <c r="F7" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>269</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>420</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="G11" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>420</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>420</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="G15" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>420</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>420</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>420</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="E21" s="1"/>
       <c r="F21" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="J21" s="3"/>
+        <v>270</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>379</v>
+      </c>
       <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H22" s="1"/>
+        <v>272</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="E23" s="1"/>
       <c r="F23" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="J23" s="3"/>
+        <v>345</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>421</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="E25" s="1"/>
       <c r="F25" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>422</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>420</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="E27" s="1"/>
       <c r="F27" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="J27" s="3"/>
+        <v>345</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11">
+        <v>383</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>421</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="J30" s="1"/>
+        <v>345</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="E31" s="1"/>
       <c r="F31" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H31" s="3"/>
+        <v>273</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>298</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="2:11">
+        <v>383</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="2:12">
       <c r="B33" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
+        <v>421</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H34" s="1"/>
+        <v>273</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="2:11">
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="2:12">
       <c r="E35" s="1"/>
       <c r="F35" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="J35" s="3"/>
+        <v>345</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="2:11">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="2:12">
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="2:11">
+        <v>383</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="2:12">
       <c r="B37" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11">
+        <v>421</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11">
+        <v>424</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
       <c r="E39" s="1"/>
       <c r="F39" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="J39" s="3"/>
+        <v>345</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12">
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="2:11">
+        <v>383</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="2:12">
       <c r="B41" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="F42" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="F42" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="J42" s="1"/>
+        <v>345</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="2:11">
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="2:12">
       <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="H43" s="3"/>
+        <v>270</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12">
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="2:11">
+        <v>385</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="2:12">
       <c r="B45" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H45" s="3"/>
+        <v>227</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3" t="s">
+        <v>303</v>
+      </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12">
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>283</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="2:11">
+        <v>385</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="2:12">
       <c r="B47" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H47" s="3"/>
+        <v>274</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>304</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12">
       <c r="B48" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>275</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="J48" s="1"/>
+        <v>345</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="2:12">
       <c r="B49" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12">
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>421</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12">
       <c r="E51" s="1"/>
       <c r="F51" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="J51" s="3"/>
+        <v>345</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="2:12">
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11">
+        <v>383</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="2:12">
       <c r="B53" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>352</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12">
       <c r="E55" s="1"/>
       <c r="F55" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>429</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
       <c r="E57" s="1"/>
       <c r="F57" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+        <v>311</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="K58" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>429</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12">
       <c r="E59" s="1"/>
       <c r="F59" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12">
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
       <c r="E61" s="1"/>
       <c r="F61" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G61" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="B62" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="I62" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="J62" s="1"/>
+        <v>345</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="2:12">
       <c r="E63" s="1"/>
       <c r="F63" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H63" s="3"/>
+        <v>276</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>315</v>
+      </c>
       <c r="I63" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="2:12">
       <c r="B64" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>183</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11">
+        <v>380</v>
+      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12">
       <c r="E65" s="1"/>
       <c r="F65" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>374</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="I65" s="3"/>
       <c r="J65" s="3" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11">
-      <c r="E66" s="1"/>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="F66" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="2:11">
+        <v>397</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="E67" s="1"/>
       <c r="F67" s="3" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11">
-      <c r="B68" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>184</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="2:11">
+        <v>399</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12">
       <c r="E69" s="1"/>
       <c r="F69" s="3" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11">
-      <c r="E70" s="1"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="B70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="F70" s="1" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="2:11">
-      <c r="B71" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>138</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="E71" s="1"/>
       <c r="F71" s="3" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11">
+        <v>362</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="2:11">
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12">
       <c r="B73" s="1" t="s">
         <v>40</v>
       </c>
@@ -3445,100 +3733,119 @@
       <c r="D73" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="F73" s="3" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="J73" s="3"/>
+        <v>345</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11">
-      <c r="E74" s="1"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12">
       <c r="F74" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="2:11">
-      <c r="E75" s="1"/>
+        <v>400</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="B75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="F75" s="3" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="J75" s="3"/>
+        <v>364</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11">
-      <c r="B76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
         <v>243</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="2:11">
+        <v>319</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="E77" s="1"/>
       <c r="F77" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="J77" s="3"/>
+        <v>345</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="K77" s="3"/>
-    </row>
-    <row r="78" spans="2:11">
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="1:12">
       <c r="B78" s="1" t="s">
         <v>42</v>
       </c>
@@ -3548,274 +3855,301 @@
       <c r="D78" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="F78" s="1" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+        <v>272</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="2:11">
-      <c r="E79" s="1"/>
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="1:12">
       <c r="F79" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="E80" s="1"/>
+        <v>380</v>
+      </c>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="B80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="F80" s="1" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11">
+        <v>293</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="2:12">
       <c r="E81" s="1"/>
       <c r="F81" s="3" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="2:11">
-      <c r="B82" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12">
+      <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11">
+        <v>433</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12">
       <c r="E83" s="1"/>
       <c r="F83" s="3" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="H83" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="2:12">
+      <c r="B84" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="J84" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="2:11">
-      <c r="E84" s="1"/>
-      <c r="F84" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="2:11">
-      <c r="B85" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>187</v>
-      </c>
+      <c r="K84" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12">
+      <c r="E85" s="1"/>
       <c r="F85" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="2:11">
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="2:12">
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1" t="s">
-        <v>380</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="2:11">
-      <c r="E87" s="1"/>
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="2:12">
+      <c r="B87" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="F87" s="3" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="2:11">
+        <v>367</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="2:12">
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>381</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="I88" s="1"/>
       <c r="J88" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="2:11">
-      <c r="B89" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="2:12">
+      <c r="E89" s="1"/>
       <c r="F89" s="3" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="2:11">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="2:12">
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11">
+        <v>438</v>
+      </c>
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" spans="2:12">
       <c r="B91" s="1" t="s">
         <v>46</v>
       </c>
@@ -3829,32 +4163,50 @@
         <v>189</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="2:11">
+        <v>274</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="2:12">
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="2:11">
+        <v>329</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12">
       <c r="B93" s="1" t="s">
         <v>47</v>
       </c>
@@ -3868,36 +4220,38 @@
         <v>190</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>416</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
       <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="2:11">
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="2:12">
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="2:11">
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="2:12">
       <c r="B95" s="1" t="s">
         <v>48</v>
       </c>
@@ -3907,46 +4261,46 @@
       <c r="D95" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="F95" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="2:11">
+        <v>408</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="2:12">
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11">
+        <v>332</v>
+      </c>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="2:12">
       <c r="B97" s="1" t="s">
         <v>49</v>
       </c>
@@ -3956,139 +4310,163 @@
       <c r="D97" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="E97" s="1"/>
       <c r="F97" s="3" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="2:11">
-      <c r="B98" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="2:12">
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12">
+      <c r="B99" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D99" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="2:11">
-      <c r="E99" s="1"/>
       <c r="F99" s="3" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="H99" s="3"/>
+        <v>276</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>294</v>
+      </c>
       <c r="I99" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="J99" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="J99" s="3"/>
       <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="2:11">
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="2:12">
       <c r="B100" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="4" t="s">
         <v>150</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>193</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H100" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="I100" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="2:11">
-      <c r="B101" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="2:12">
+      <c r="E101" s="1"/>
+      <c r="F101" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="2:12">
+      <c r="B102" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="2:11">
-      <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J102" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1" t="s">
+        <v>411</v>
+      </c>
       <c r="K102" s="1"/>
-    </row>
-    <row r="103" spans="2:11">
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" spans="2:12">
       <c r="B103" s="1" t="s">
         <v>53</v>
       </c>
@@ -4102,578 +4480,732 @@
         <v>195</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H103" s="3"/>
+        <v>281</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>294</v>
+      </c>
       <c r="I103" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="J103" s="3"/>
+        <v>345</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="K103" s="3"/>
-    </row>
-    <row r="104" spans="2:11">
-      <c r="B104" s="1" t="s">
+      <c r="L103" s="3"/>
+    </row>
+    <row r="104" spans="2:12">
+      <c r="E104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="2:12">
+      <c r="B105" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-    </row>
-    <row r="105" spans="2:11">
-      <c r="E105" s="1"/>
       <c r="F105" s="3" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>388</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="I105" s="3"/>
       <c r="J105" s="3" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="K105" s="3"/>
-    </row>
-    <row r="106" spans="2:11">
-      <c r="E106" s="1"/>
+      <c r="L105" s="3"/>
+    </row>
+    <row r="106" spans="2:12">
+      <c r="B106" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="F106" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H106" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="I106" s="1" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
-    </row>
-    <row r="107" spans="2:11">
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="2:12">
       <c r="E107" s="1"/>
       <c r="F107" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="K107" s="3"/>
-    </row>
-    <row r="108" spans="2:11">
+        <v>412</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="L107" s="3"/>
+    </row>
+    <row r="108" spans="2:12">
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>391</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="I108" s="1"/>
       <c r="J108" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="K108" s="1"/>
-    </row>
-    <row r="109" spans="2:11">
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="2:12">
       <c r="E109" s="1"/>
       <c r="F109" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-    </row>
-    <row r="110" spans="2:11">
-      <c r="B110" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>197</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="L109" s="3"/>
+    </row>
+    <row r="110" spans="2:12">
+      <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="K110" s="1"/>
-    </row>
-    <row r="111" spans="2:11">
+        <v>415</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="L110" s="1"/>
+    </row>
+    <row r="111" spans="2:12">
       <c r="E111" s="1"/>
       <c r="F111" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H111" s="3"/>
+        <v>279</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>340</v>
+      </c>
       <c r="I111" s="3" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="K111" s="3"/>
-    </row>
-    <row r="112" spans="2:11">
-      <c r="E112" s="1"/>
+      <c r="L111" s="3"/>
+    </row>
+    <row r="112" spans="2:12">
+      <c r="B112" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="F112" s="1" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-    </row>
-    <row r="113" spans="2:11">
+        <v>374</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="L112" s="1"/>
+    </row>
+    <row r="113" spans="2:12">
       <c r="E113" s="1"/>
       <c r="F113" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-    </row>
-    <row r="114" spans="2:11">
-      <c r="B114" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="L113" s="3"/>
+    </row>
+    <row r="114" spans="2:12">
+      <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11">
+        <v>380</v>
+      </c>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+    </row>
+    <row r="115" spans="2:12">
       <c r="E115" s="1"/>
       <c r="F115" s="3" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K115" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+    </row>
+    <row r="116" spans="2:12">
+      <c r="B116" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K116" s="1" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="116" spans="2:11">
-      <c r="E116" s="1"/>
-      <c r="F116" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-    </row>
-    <row r="117" spans="2:11">
+      <c r="L116" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12">
       <c r="E117" s="1"/>
       <c r="F117" s="3" t="s">
         <v>215</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H117" s="3"/>
+        <v>283</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="I117" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-    </row>
-    <row r="118" spans="2:11">
+        <v>344</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12">
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H118" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="I118" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="J118" s="1"/>
+        <v>345</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="K118" s="1"/>
-    </row>
-    <row r="119" spans="2:11">
+      <c r="L118" s="1"/>
+    </row>
+    <row r="119" spans="2:12">
       <c r="E119" s="1"/>
       <c r="F119" s="3" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="J119" s="3"/>
+        <v>283</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3" t="s">
+        <v>379</v>
+      </c>
       <c r="K119" s="3"/>
-    </row>
-    <row r="120" spans="2:11">
-      <c r="B120" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="L119" s="3"/>
+    </row>
+    <row r="120" spans="2:12">
+      <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J120" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="K120" s="1"/>
-    </row>
-    <row r="121" spans="2:11">
+      <c r="L120" s="1"/>
+    </row>
+    <row r="121" spans="2:12">
       <c r="E121" s="1"/>
       <c r="F121" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="J121" s="3"/>
+        <v>283</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3" t="s">
+        <v>419</v>
+      </c>
       <c r="K121" s="3"/>
-    </row>
-    <row r="122" spans="2:11">
-      <c r="E122" s="1"/>
+      <c r="L121" s="3"/>
+    </row>
+    <row r="122" spans="2:12">
+      <c r="B122" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="F122" s="1" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="J122" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1" t="s">
+        <v>379</v>
+      </c>
       <c r="K122" s="1"/>
-    </row>
-    <row r="123" spans="2:11">
-      <c r="B123" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="L122" s="1"/>
+    </row>
+    <row r="123" spans="2:12">
+      <c r="E123" s="1"/>
       <c r="F123" s="3" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>356</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="I123" s="3"/>
       <c r="J123" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K123" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11">
-      <c r="B124" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+    </row>
+    <row r="124" spans="2:12">
+      <c r="E124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+    </row>
+    <row r="125" spans="2:12">
+      <c r="B125" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11">
-      <c r="B125" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>158</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>215</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H125" s="3"/>
+        <v>283</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="I125" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
-    </row>
-    <row r="126" spans="2:11">
+        <v>344</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12">
       <c r="B126" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>159</v>
+        <v>111</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H126" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="I126" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
-    </row>
-    <row r="127" spans="2:11">
-      <c r="B127" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12">
+      <c r="E127" s="1"/>
       <c r="F127" s="3" t="s">
         <v>215</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H127" s="3"/>
+        <v>283</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="I127" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-    </row>
-    <row r="128" spans="2:11">
+        <v>344</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12">
       <c r="B128" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+    </row>
+    <row r="129" spans="2:12">
+      <c r="B129" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+    </row>
+    <row r="130" spans="2:12">
+      <c r="B130" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="D130" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
-    </row>
-    <row r="129" spans="2:11">
-      <c r="B129" s="1" t="s">
+      <c r="F130" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+    </row>
+    <row r="131" spans="2:12">
+      <c r="B131" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F129" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
+      <c r="F131" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+    </row>
+    <row r="132" spans="2:12">
+      <c r="B132" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="151">
     <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A22:A63"/>
-    <mergeCell ref="A64:A129"/>
+    <mergeCell ref="A22:A65"/>
+    <mergeCell ref="A66:A132"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B9:B10"/>
@@ -4691,26 +5223,27 @@
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B53:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B90"/>
     <mergeCell ref="B91:B92"/>
     <mergeCell ref="B93:B94"/>
     <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B104:B109"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="B114:B119"/>
-    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="B116:B121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B126:B127"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C9:C10"/>
@@ -4728,26 +5261,27 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="C49:C52"/>
-    <mergeCell ref="C53:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C53:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="C87:C90"/>
     <mergeCell ref="C91:C92"/>
     <mergeCell ref="C93:C94"/>
     <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C104:C109"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C119"/>
-    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="C116:C121"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C126:C127"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D9:D10"/>
@@ -4765,26 +5299,27 @@
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="D49:D52"/>
-    <mergeCell ref="D53:D61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D53:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="D87:D90"/>
     <mergeCell ref="D91:D92"/>
     <mergeCell ref="D93:D94"/>
     <mergeCell ref="D95:D96"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D104:D109"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="D114:D119"/>
-    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D106:D111"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="D116:D121"/>
+    <mergeCell ref="D122:D124"/>
+    <mergeCell ref="D126:D127"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E9:E10"/>
@@ -4801,23 +5336,24 @@
     <mergeCell ref="E43:E44"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="E49:E52"/>
-    <mergeCell ref="E53:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="E85:E88"/>
-    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E53:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="E87:E90"/>
     <mergeCell ref="E91:E92"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E104:E109"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="E114:E119"/>
-    <mergeCell ref="E120:E122"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="E95:E98"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E106:E111"/>
+    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="E116:E121"/>
+    <mergeCell ref="E122:E124"/>
+    <mergeCell ref="E126:E127"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1"/>
@@ -4825,100 +5361,103 @@
     <hyperlink ref="D15" r:id="rId3"/>
     <hyperlink ref="D17" r:id="rId4"/>
     <hyperlink ref="D19" r:id="rId5"/>
-    <hyperlink ref="I23" r:id="rId6"/>
-    <hyperlink ref="I24" r:id="rId7" location="/home&#10;(or https://data.jrc.ec.europa.eu/collection/id-0054&#10;or&#10;local data)"/>
-    <hyperlink ref="I25" r:id="rId8"/>
-    <hyperlink ref="I27" r:id="rId9"/>
-    <hyperlink ref="I28" r:id="rId10"/>
-    <hyperlink ref="J28" r:id="rId11"/>
-    <hyperlink ref="I29" r:id="rId12" location="/home&#10;(or https://data.jrc.ec.europa.eu/collection/id-0054&#10;or&#10;local data)"/>
-    <hyperlink ref="I30" r:id="rId13"/>
-    <hyperlink ref="I32" r:id="rId14"/>
-    <hyperlink ref="J32" r:id="rId15"/>
-    <hyperlink ref="I33" r:id="rId16" location="/home&#10;(or https://data.jrc.ec.europa.eu/collection/id-0054&#10;or&#10;local data)"/>
-    <hyperlink ref="I35" r:id="rId17"/>
-    <hyperlink ref="I36" r:id="rId18"/>
-    <hyperlink ref="J36" r:id="rId19"/>
-    <hyperlink ref="I37" r:id="rId20" location="/home&#10;(or https://data.jrc.ec.europa.eu/collection/id-0054&#10;or&#10;local data)"/>
-    <hyperlink ref="I39" r:id="rId21"/>
-    <hyperlink ref="I40" r:id="rId22"/>
-    <hyperlink ref="J40" r:id="rId23"/>
-    <hyperlink ref="I41" r:id="rId24" location="/home&#10;(or https://data.jrc.ec.europa.eu/collection/id-0054&#10;or&#10;local data)"/>
-    <hyperlink ref="I42" r:id="rId25"/>
+    <hyperlink ref="J23" r:id="rId6"/>
+    <hyperlink ref="J24" r:id="rId7" location="/home&#10;(or https://data.jrc.ec.europa.eu/collection/id-0054&#10;or&#10;local data)"/>
+    <hyperlink ref="J25" r:id="rId8"/>
+    <hyperlink ref="J27" r:id="rId9"/>
+    <hyperlink ref="J28" r:id="rId10"/>
+    <hyperlink ref="K28" r:id="rId11"/>
+    <hyperlink ref="J29" r:id="rId12" location="/home&#10;(or https://data.jrc.ec.europa.eu/collection/id-0054&#10;or&#10;local data)"/>
+    <hyperlink ref="J30" r:id="rId13"/>
+    <hyperlink ref="J32" r:id="rId14"/>
+    <hyperlink ref="K32" r:id="rId15"/>
+    <hyperlink ref="J33" r:id="rId16" location="/home&#10;(or https://data.jrc.ec.europa.eu/collection/id-0054&#10;or&#10;local data)"/>
+    <hyperlink ref="J35" r:id="rId17"/>
+    <hyperlink ref="J36" r:id="rId18"/>
+    <hyperlink ref="K36" r:id="rId19"/>
+    <hyperlink ref="J37" r:id="rId20" location="/home&#10;(or https://data.jrc.ec.europa.eu/collection/id-0054&#10;or&#10;local data)"/>
+    <hyperlink ref="J39" r:id="rId21"/>
+    <hyperlink ref="J40" r:id="rId22"/>
+    <hyperlink ref="K40" r:id="rId23"/>
+    <hyperlink ref="J41" r:id="rId24" location="/home&#10;(or https://data.jrc.ec.europa.eu/collection/id-0054&#10;or&#10;local data)"/>
+    <hyperlink ref="J42" r:id="rId25"/>
     <hyperlink ref="D43" r:id="rId26"/>
-    <hyperlink ref="I44" r:id="rId27"/>
-    <hyperlink ref="J44" r:id="rId28"/>
-    <hyperlink ref="I46" r:id="rId29"/>
-    <hyperlink ref="J46" r:id="rId30"/>
-    <hyperlink ref="I48" r:id="rId31"/>
-    <hyperlink ref="I49" r:id="rId32"/>
-    <hyperlink ref="I50" r:id="rId33" location="/home&#10;(or https://data.jrc.ec.europa.eu/collection/id-0054&#10;or&#10;local data)"/>
-    <hyperlink ref="I51" r:id="rId34"/>
-    <hyperlink ref="I52" r:id="rId35"/>
-    <hyperlink ref="J52" r:id="rId36"/>
-    <hyperlink ref="I53" r:id="rId37"/>
-    <hyperlink ref="I54" r:id="rId38"/>
-    <hyperlink ref="I55" r:id="rId39"/>
-    <hyperlink ref="I56" r:id="rId40"/>
-    <hyperlink ref="I57" r:id="rId41"/>
-    <hyperlink ref="I59" r:id="rId42"/>
-    <hyperlink ref="I60" r:id="rId43"/>
-    <hyperlink ref="I61" r:id="rId44"/>
-    <hyperlink ref="J61" r:id="rId45"/>
-    <hyperlink ref="D62" r:id="rId46"/>
-    <hyperlink ref="I62" r:id="rId47"/>
-    <hyperlink ref="I64" r:id="rId48"/>
-    <hyperlink ref="I65" r:id="rId49"/>
-    <hyperlink ref="J65" r:id="rId50"/>
-    <hyperlink ref="I66" r:id="rId51"/>
-    <hyperlink ref="J66" r:id="rId52"/>
-    <hyperlink ref="I67" r:id="rId53"/>
-    <hyperlink ref="I68" r:id="rId54"/>
-    <hyperlink ref="J68" r:id="rId55"/>
-    <hyperlink ref="I69" r:id="rId56"/>
-    <hyperlink ref="J69" r:id="rId57"/>
-    <hyperlink ref="I70" r:id="rId58"/>
-    <hyperlink ref="I71" r:id="rId59"/>
-    <hyperlink ref="I72" r:id="rId60"/>
-    <hyperlink ref="J72" r:id="rId61"/>
-    <hyperlink ref="I73" r:id="rId62"/>
-    <hyperlink ref="I74" r:id="rId63"/>
-    <hyperlink ref="J74" r:id="rId64"/>
-    <hyperlink ref="I75" r:id="rId65"/>
-    <hyperlink ref="I77" r:id="rId66"/>
-    <hyperlink ref="I79" r:id="rId67"/>
-    <hyperlink ref="I80" r:id="rId68"/>
-    <hyperlink ref="I81" r:id="rId69"/>
-    <hyperlink ref="I83" r:id="rId70"/>
-    <hyperlink ref="J85" r:id="rId71"/>
-    <hyperlink ref="I87" r:id="rId72"/>
-    <hyperlink ref="I88" r:id="rId73"/>
-    <hyperlink ref="J88" r:id="rId74"/>
-    <hyperlink ref="I89" r:id="rId75"/>
-    <hyperlink ref="I90" r:id="rId76"/>
-    <hyperlink ref="I93" r:id="rId77"/>
-    <hyperlink ref="I96" r:id="rId78"/>
-    <hyperlink ref="I97" r:id="rId79"/>
-    <hyperlink ref="D98" r:id="rId80"/>
-    <hyperlink ref="I101" r:id="rId81"/>
-    <hyperlink ref="I105" r:id="rId82"/>
-    <hyperlink ref="J105" r:id="rId83"/>
-    <hyperlink ref="I107" r:id="rId84"/>
-    <hyperlink ref="J107" r:id="rId85"/>
-    <hyperlink ref="I108" r:id="rId86"/>
-    <hyperlink ref="J108" r:id="rId87"/>
-    <hyperlink ref="I109" r:id="rId88"/>
-    <hyperlink ref="I110" r:id="rId89"/>
-    <hyperlink ref="J110" r:id="rId90"/>
-    <hyperlink ref="I111" r:id="rId91"/>
-    <hyperlink ref="J111" r:id="rId92"/>
-    <hyperlink ref="I112" r:id="rId93"/>
-    <hyperlink ref="I113" r:id="rId94"/>
-    <hyperlink ref="I114" r:id="rId95"/>
-    <hyperlink ref="I116" r:id="rId96"/>
-    <hyperlink ref="D123" r:id="rId97"/>
-    <hyperlink ref="D124" r:id="rId98"/>
+    <hyperlink ref="J44" r:id="rId27"/>
+    <hyperlink ref="K44" r:id="rId28"/>
+    <hyperlink ref="J46" r:id="rId29"/>
+    <hyperlink ref="K46" r:id="rId30"/>
+    <hyperlink ref="J48" r:id="rId31"/>
+    <hyperlink ref="J49" r:id="rId32"/>
+    <hyperlink ref="J50" r:id="rId33" location="/home&#10;(or https://data.jrc.ec.europa.eu/collection/id-0054&#10;or&#10;local data)"/>
+    <hyperlink ref="J51" r:id="rId34"/>
+    <hyperlink ref="J52" r:id="rId35"/>
+    <hyperlink ref="K52" r:id="rId36"/>
+    <hyperlink ref="J53" r:id="rId37"/>
+    <hyperlink ref="J54" r:id="rId38"/>
+    <hyperlink ref="J55" r:id="rId39"/>
+    <hyperlink ref="J56" r:id="rId40"/>
+    <hyperlink ref="J57" r:id="rId41"/>
+    <hyperlink ref="J58" r:id="rId42"/>
+    <hyperlink ref="J59" r:id="rId43"/>
+    <hyperlink ref="J61" r:id="rId44"/>
+    <hyperlink ref="J62" r:id="rId45"/>
+    <hyperlink ref="J63" r:id="rId46"/>
+    <hyperlink ref="K63" r:id="rId47"/>
+    <hyperlink ref="D64" r:id="rId48"/>
+    <hyperlink ref="J64" r:id="rId49"/>
+    <hyperlink ref="J66" r:id="rId50"/>
+    <hyperlink ref="J67" r:id="rId51"/>
+    <hyperlink ref="K67" r:id="rId52"/>
+    <hyperlink ref="J68" r:id="rId53"/>
+    <hyperlink ref="K68" r:id="rId54"/>
+    <hyperlink ref="J69" r:id="rId55"/>
+    <hyperlink ref="J70" r:id="rId56"/>
+    <hyperlink ref="K70" r:id="rId57"/>
+    <hyperlink ref="J71" r:id="rId58"/>
+    <hyperlink ref="K71" r:id="rId59"/>
+    <hyperlink ref="J72" r:id="rId60"/>
+    <hyperlink ref="J73" r:id="rId61"/>
+    <hyperlink ref="J74" r:id="rId62"/>
+    <hyperlink ref="K74" r:id="rId63"/>
+    <hyperlink ref="J75" r:id="rId64"/>
+    <hyperlink ref="J76" r:id="rId65"/>
+    <hyperlink ref="K76" r:id="rId66"/>
+    <hyperlink ref="J77" r:id="rId67"/>
+    <hyperlink ref="J79" r:id="rId68"/>
+    <hyperlink ref="J81" r:id="rId69"/>
+    <hyperlink ref="J82" r:id="rId70"/>
+    <hyperlink ref="J83" r:id="rId71"/>
+    <hyperlink ref="J85" r:id="rId72"/>
+    <hyperlink ref="K87" r:id="rId73"/>
+    <hyperlink ref="J89" r:id="rId74"/>
+    <hyperlink ref="J90" r:id="rId75"/>
+    <hyperlink ref="K90" r:id="rId76"/>
+    <hyperlink ref="J91" r:id="rId77"/>
+    <hyperlink ref="J92" r:id="rId78"/>
+    <hyperlink ref="J95" r:id="rId79"/>
+    <hyperlink ref="J98" r:id="rId80"/>
+    <hyperlink ref="J99" r:id="rId81"/>
+    <hyperlink ref="D100" r:id="rId82"/>
+    <hyperlink ref="J103" r:id="rId83"/>
+    <hyperlink ref="J107" r:id="rId84"/>
+    <hyperlink ref="K107" r:id="rId85"/>
+    <hyperlink ref="J109" r:id="rId86"/>
+    <hyperlink ref="K109" r:id="rId87"/>
+    <hyperlink ref="J110" r:id="rId88"/>
+    <hyperlink ref="K110" r:id="rId89"/>
+    <hyperlink ref="J111" r:id="rId90"/>
+    <hyperlink ref="J112" r:id="rId91"/>
+    <hyperlink ref="K112" r:id="rId92"/>
+    <hyperlink ref="J113" r:id="rId93"/>
+    <hyperlink ref="K113" r:id="rId94"/>
+    <hyperlink ref="J114" r:id="rId95"/>
+    <hyperlink ref="J115" r:id="rId96"/>
+    <hyperlink ref="J116" r:id="rId97"/>
+    <hyperlink ref="J118" r:id="rId98"/>
     <hyperlink ref="D125" r:id="rId99"/>
+    <hyperlink ref="D126" r:id="rId100"/>
+    <hyperlink ref="J126" r:id="rId101"/>
+    <hyperlink ref="D128" r:id="rId102"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
